--- a/Documantation/Nhom1_Product Backlog.xlsx
+++ b/Documantation/Nhom1_Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Hoang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNPM_FastFoodSystem\Documantation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED521F8D-7820-4F5A-93F9-7D9832B03CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756AB4B5-B3A8-415F-8D55-B33152B8707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2070" windowWidth="21600" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog_x000a_" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>Product BackLog - Hệ thống quản lý cửa hàng bán đồ ăn nhanh (Product Owner - Đại)</t>
   </si>
@@ -318,6 +318,9 @@
   <si>
     <t>Maximum effort</t>
   </si>
+  <si>
+    <t>MA022</t>
+  </si>
 </sst>
 </file>
 
@@ -488,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -527,15 +530,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -545,7 +539,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -768,8 +768,8 @@
   </sheetPr>
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -783,17 +783,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="101.25">
       <c r="A2" s="2" t="s">
@@ -878,33 +878,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="40.5">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>10</v>
@@ -1338,29 +1311,29 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="40.5">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>3</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="17">
         <v>5</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20">
+      <c r="H22" s="18"/>
+      <c r="I22" s="17">
         <v>3</v>
       </c>
       <c r="J22" s="8"/>
@@ -1382,29 +1355,29 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="20.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>3</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="17">
         <v>5</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20">
+      <c r="H23" s="18"/>
+      <c r="I23" s="17">
         <v>2</v>
       </c>
       <c r="J23" s="8"/>
@@ -1426,29 +1399,29 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="20.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <v>3</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="17">
         <v>3</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20">
+      <c r="H24" s="18"/>
+      <c r="I24" s="17">
         <v>2</v>
       </c>
       <c r="J24" s="8"/>
@@ -1469,16 +1442,32 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+    <row r="25" spans="1:26" ht="40.5">
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I24" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
